--- a/metadata/Study_List.xlsx
+++ b/metadata/Study_List.xlsx
@@ -267,7 +267,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -276,7 +276,7 @@
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9132653061225"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.030612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.7244897959184"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.8367346938776"/>
     <col collapsed="false" hidden="false" max="8" min="7" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.1989795918367"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
